--- a/ocms/src/test/resources/TestData/UserOnBoardingData.xlsx
+++ b/ocms/src/test/resources/TestData/UserOnBoardingData.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB1F5BC-2865-4AC0-89BB-A42774BC4967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="ImportProfilePic" sheetId="5" r:id="rId2"/>
-    <sheet name="Edit" sheetId="3" r:id="rId3"/>
-    <sheet name="Delete" sheetId="4" r:id="rId4"/>
-    <sheet name="Invalid" sheetId="2" r:id="rId5"/>
+    <sheet name="ImportUsers" sheetId="6" r:id="rId3"/>
+    <sheet name="Edit" sheetId="3" r:id="rId4"/>
+    <sheet name="Delete" sheetId="4" r:id="rId5"/>
+    <sheet name="Invalid" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="145">
   <si>
     <t>Lan ID</t>
   </si>
@@ -245,12 +240,231 @@
   </si>
   <si>
     <t>DifferentFormatImages</t>
+  </si>
+  <si>
+    <t>UserDeatils FileName</t>
+  </si>
+  <si>
+    <t>ChannelCount FileName</t>
+  </si>
+  <si>
+    <t>FeatureDeatails FileName</t>
+  </si>
+  <si>
+    <t>UserDetailswithLanIDBlank.csv</t>
+  </si>
+  <si>
+    <t>ChannelCountDetails.csv</t>
+  </si>
+  <si>
+    <t>FeatureDetails.csv</t>
+  </si>
+  <si>
+    <t>Duplicate Record Count</t>
+  </si>
+  <si>
+    <t>UserDetailswithFirstNameBlank.csv</t>
+  </si>
+  <si>
+    <t>UserDeatils FileName LanID Blank</t>
+  </si>
+  <si>
+    <t>UserDeatils FileName with First Name Blank</t>
+  </si>
+  <si>
+    <t>UserDeatils FileName with Last Name Blank</t>
+  </si>
+  <si>
+    <t>UserDeatils FileName with Avaya Login ID Blank</t>
+  </si>
+  <si>
+    <t>UserDeatils FileName with Profile Blank</t>
+  </si>
+  <si>
+    <t>UserDeatils FileName with OrgUnit Blank</t>
+  </si>
+  <si>
+    <t>UserDeatils FileName with Supervisor LanID Blank</t>
+  </si>
+  <si>
+    <t>UserDetailswithLastNameBlank.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithAvayaLoginIDBlank.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithProfileBlank.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithOrgUnitBlank.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithSupervisorLanIDBlank.csv</t>
+  </si>
+  <si>
+    <t>ProfilePicwithNamenotMatchingtheAttribute.zip</t>
+  </si>
+  <si>
+    <t>UploadFilewithLanIDasAtrributeandImageNameasAvayaLoginId.zip</t>
+  </si>
+  <si>
+    <t>ReplacetheImages.zip</t>
+  </si>
+  <si>
+    <t>UserDetailswithAlltheFieldsBlank.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithAllValidFields.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithCRMandTextChatFieldBlank.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithAccessRoleandRoleFieldBlank.csv</t>
+  </si>
+  <si>
+    <t>Non Mandatory Fields Blank</t>
+  </si>
+  <si>
+    <t>AccessRole and Role Fields Blank</t>
+  </si>
+  <si>
+    <t>CRM and TextChat Fields Blank</t>
+  </si>
+  <si>
+    <t>UserDetailswithNonMandatoryFieldBlank.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithDuplicateAvayaLoginIDFile.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithDuplicateLanIDFile.csv</t>
+  </si>
+  <si>
+    <t>Country Level Supervisor</t>
+  </si>
+  <si>
+    <t>Division Level Supervisor</t>
+  </si>
+  <si>
+    <t>Department Level Supervisor</t>
+  </si>
+  <si>
+    <t>Team Level Supervisor</t>
+  </si>
+  <si>
+    <t>UserDetailswithContryLevelSupervisor.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithDivisionLevelSupervisor.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithDepartmentLevelSupervisor.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithTeamLevelSupervisor.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithContryOrgUnitwitDivSupervisor.csv</t>
+  </si>
+  <si>
+    <t>ImportSupervisorwithCommaSeperatedValuesInRoleColumn.csv</t>
+  </si>
+  <si>
+    <t>ChannelCountDetailsUpdated.csv</t>
+  </si>
+  <si>
+    <t>FeatureDetailsEnabled.csv</t>
+  </si>
+  <si>
+    <t>MultipleUserDetailswithAllValidFields.csv</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>MultipleUserDetailswithDuplicateAvayaLoginID.csv</t>
+  </si>
+  <si>
+    <t>MultipleUserDetailswithDuplicateLanID.csv</t>
+  </si>
+  <si>
+    <t>MultipleUserDetailswithAllFieldBlank.csv</t>
+  </si>
+  <si>
+    <t>MultipleUserDetailswithFirstNameFieldBlank.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithInvalidOrgUnitField.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithNewColumn.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithUpdatedColumnName.csv</t>
+  </si>
+  <si>
+    <t>Updated Column</t>
+  </si>
+  <si>
+    <t>New Column</t>
+  </si>
+  <si>
+    <t>Invalid Org Unit</t>
+  </si>
+  <si>
+    <t>UserDetailswithoutDivisionLevelSupervisor.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithoutDepartmentLevelSupervisor.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithoutTeamLevelSupervisor.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithvalidTeamLevelAgentDetails.csv</t>
+  </si>
+  <si>
+    <t>ChannelDisabledwithCountValue.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithInvalidTextChatTemplate.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithInvalidRole.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithInavlidValidAccessRole.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithInvalidProfile.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithInvalidAvayaLoginID.csv</t>
+  </si>
+  <si>
+    <t>UserDetailswithSpecialCharectorsasAvayaLoginID.csv</t>
+  </si>
+  <si>
+    <t>50020</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>James</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -308,6 +522,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,7 +588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,7 +623,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,30 +800,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="30" max="30" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="72" x14ac:dyDescent="0.3">
@@ -698,7 +918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -797,19 +1017,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1959034-5109-4ED8-88F6-1A102C56C26C}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -878,6 +1098,12 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -932,6 +1158,48 @@
         <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -941,22 +1209,529 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
+    <col min="10" max="10" width="41.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" customWidth="1"/>
+    <col min="13" max="13" width="43.7109375" customWidth="1"/>
+    <col min="14" max="14" width="37.140625" customWidth="1"/>
+    <col min="15" max="15" width="44.42578125" customWidth="1"/>
+    <col min="16" max="16" width="40.28515625" customWidth="1"/>
+    <col min="17" max="17" width="35" customWidth="1"/>
+    <col min="18" max="18" width="39.28515625" customWidth="1"/>
+    <col min="19" max="19" width="42.7109375" customWidth="1"/>
+    <col min="20" max="20" width="36.85546875" customWidth="1"/>
+    <col min="21" max="21" width="33.7109375" customWidth="1"/>
+    <col min="22" max="22" width="27.5703125" customWidth="1"/>
+    <col min="23" max="23" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="U2" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" t="s">
+        <v>110</v>
+      </c>
+      <c r="S4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S13" t="s">
+        <v>130</v>
+      </c>
+      <c r="T13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE3"/>
+  <sheetViews>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AQ6" sqref="AQ6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="31" max="31" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="31" max="31" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="72" x14ac:dyDescent="0.3">
@@ -1054,7 +1829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -1073,7 +1848,7 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1149,212 +1924,30 @@
         <v>50</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:31" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>53</v>
+      <c r="AE3" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1363,17 +1956,247 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="1" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">

--- a/ocms/src/test/resources/TestData/UserOnBoardingData.xlsx
+++ b/ocms/src/test/resources/TestData/UserOnBoardingData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A7631-E8FA-4BFA-B18F-AF5552D46BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587E9FE1-9108-4DF8-94DA-C947F0238F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="193">
   <si>
     <t>Lan ID</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Modify Reason</t>
   </si>
   <si>
-    <t>Qualified</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -461,18 +458,9 @@
     <t>Test</t>
   </si>
   <si>
-    <t>50099</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>divSuperAgent5</t>
   </si>
   <si>
@@ -521,9 +509,6 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>Team Lead</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -551,9 +536,6 @@
     <t>Country Manager</t>
   </si>
   <si>
-    <t>Division Team Lead</t>
-  </si>
-  <si>
     <t>Department Team</t>
   </si>
   <si>
@@ -575,7 +557,58 @@
     <t>Team Product</t>
   </si>
   <si>
-    <t>Qualified Product</t>
+    <t>Santosh K</t>
+  </si>
+  <si>
+    <t>500991</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>India&gt;South&gt;Bangalore&gt;Dell</t>
+  </si>
+  <si>
+    <t>898989</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>56111</t>
+  </si>
+  <si>
+    <t>TDMdata</t>
+  </si>
+  <si>
+    <t>Avaya</t>
+  </si>
+  <si>
+    <t>LoginID</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>TeamLead</t>
+  </si>
+  <si>
+    <t>Division TeamLead</t>
+  </si>
+  <si>
+    <t>LanIDTest</t>
+  </si>
+  <si>
+    <t>Software Product</t>
   </si>
 </sst>
 </file>
@@ -924,25 +957,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="30" max="30" width="14.44140625" customWidth="1"/>
+    <col min="3" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="31" max="31" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -952,569 +985,938 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
         <v>156</v>
       </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
         <v>159</v>
       </c>
-      <c r="D2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W4" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="X4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AC4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>168</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="R8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
         <v>179</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="G10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="2" t="s">
+      <c r="O10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W10" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="X10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AC10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD10" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="2" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="2" t="s">
+      <c r="O11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W11" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="X11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AC11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD11" t="s">
         <v>38</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1541,21 +1943,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1564,12 +1966,12 @@
         <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1578,7 +1980,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -1587,12 +1989,12 @@
         <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1600,13 +2002,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>33</v>
@@ -1614,7 +2016,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1628,7 +2030,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1642,7 +2044,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1651,12 +2053,12 @@
         <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1665,18 +2067,18 @@
         <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>33</v>
@@ -1684,13 +2086,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>33</v>
@@ -1698,7 +2100,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>0</v>
@@ -1707,7 +2109,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +2121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EF3822-A6FF-40C4-B008-8A11DC484337}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1749,305 +2153,305 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>81</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>82</v>
       </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
       <c r="N1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" t="s">
-        <v>98</v>
-      </c>
       <c r="Q1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" t="s">
         <v>102</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>103</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>104</v>
       </c>
-      <c r="T1" t="s">
-        <v>105</v>
-      </c>
       <c r="U1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
         <v>84</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>85</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>86</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>87</v>
-      </c>
-      <c r="M2" t="s">
-        <v>88</v>
       </c>
       <c r="N2" s="5"/>
       <c r="U2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V2" t="s">
         <v>120</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>121</v>
-      </c>
-      <c r="W2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" t="s">
-        <v>94</v>
-      </c>
       <c r="Q4" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" t="s">
         <v>106</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>107</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>108</v>
-      </c>
-      <c r="T4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
       <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
       <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>33</v>
@@ -2055,36 +2459,36 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
         <v>112</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
         <v>112</v>
       </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>33</v>
@@ -2093,165 +2497,165 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="R13" t="s">
+        <v>125</v>
+      </c>
+      <c r="S13" t="s">
         <v>126</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>127</v>
-      </c>
-      <c r="T13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
         <v>112</v>
       </c>
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
         <v>112</v>
       </c>
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2264,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,6 +2681,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
     <col min="17" max="17" width="12.44140625" customWidth="1"/>
+    <col min="30" max="30" width="22.6640625" customWidth="1"/>
     <col min="31" max="31" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2380,22 +2785,22 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
+        <v>159</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>54</v>
+      <c r="G2" t="s">
+        <v>179</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
@@ -2416,7 +2821,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>32</v>
@@ -2425,16 +2830,16 @@
         <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>32</v>
@@ -2443,7 +2848,7 @@
         <v>35</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>34</v>
@@ -2466,37 +2871,37 @@
       <c r="AD2" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="4" t="s">
-        <v>47</v>
+      <c r="AE2" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>138</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>139</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2508,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2612,27 +3017,27 @@
         <v>30</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>32</v>
@@ -2662,7 +3067,7 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>34</v>
@@ -2704,7 +3109,7 @@
         <v>38</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -2712,19 +3117,19 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
+        <v>169</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>54</v>
+      <c r="F3" t="s">
+        <v>179</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>32</v>
@@ -2754,16 +3159,16 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>32</v>
@@ -2772,19 +3177,19 @@
         <v>35</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="s">
         <v>37</v>
@@ -2793,30 +3198,30 @@
         <v>34</v>
       </c>
       <c r="AC3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>32</v>
@@ -2846,7 +3251,7 @@
         <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>34</v>
@@ -2888,27 +3293,27 @@
         <v>38</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>32</v>
@@ -2938,7 +3343,7 @@
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>34</v>
@@ -2980,27 +3385,27 @@
         <v>38</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>32</v>
@@ -3030,7 +3435,7 @@
         <v>32</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>34</v>
@@ -3072,79 +3477,79 @@
         <v>38</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
         <v>137</v>
       </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
       <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
         <v>140</v>
-      </c>
-      <c r="D7" t="s">
-        <v>141</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s">
         <v>39</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3157,7 +3562,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3183,26 +3588,26 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>33</v>
@@ -3210,15 +3615,15 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/UserOnBoardingData.xlsx
+++ b/ocms/src/test/resources/TestData/UserOnBoardingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587E9FE1-9108-4DF8-94DA-C947F0238F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107881DF-3F15-4C28-8722-E335A9315EB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="201">
   <si>
     <t>Lan ID</t>
   </si>
@@ -609,6 +609,30 @@
   </si>
   <si>
     <t>Software Product</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>PBX ID</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>6000</t>
   </si>
 </sst>
 </file>
@@ -659,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -677,6 +701,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,139 +984,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="31" max="31" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="32" max="32" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:32" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>160</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>155</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>158</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
@@ -1106,20 +1137,20 @@
         <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1127,17 +1158,17 @@
         <v>34</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1147,41 +1178,44 @@
       <c r="AA2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>161</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>156</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>189</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1198,20 +1232,20 @@
         <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1219,17 +1253,17 @@
         <v>34</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1239,41 +1273,44 @@
       <c r="AA3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>162</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>157</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>159</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1290,20 +1327,20 @@
         <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1311,17 +1348,17 @@
         <v>34</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1331,41 +1368,44 @@
       <c r="AA4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>169</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>159</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>173</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1382,20 +1422,20 @@
         <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
         <v>168</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1403,17 +1443,17 @@
         <v>34</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1423,41 +1463,44 @@
       <c r="AA5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE5" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>171</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>172</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>159</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>149</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1474,20 +1517,20 @@
         <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1495,17 +1538,17 @@
         <v>34</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1515,64 +1558,67 @@
       <c r="AA6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="s">
         <v>37</v>
       </c>
-      <c r="AC6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE6" t="s">
         <v>38</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>138</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>140</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>179</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>169</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>159</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>173</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1589,20 +1635,20 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
         <v>175</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1610,17 +1656,17 @@
         <v>34</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1630,41 +1676,41 @@
       <c r="AA8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="s">
         <v>37</v>
       </c>
-      <c r="AC8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE8" t="s">
         <v>38</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>161</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1681,20 +1727,20 @@
         <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1702,17 +1748,17 @@
         <v>34</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1722,41 +1768,41 @@
       <c r="AA9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="s">
         <v>37</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE9" t="s">
         <v>38</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>181</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>182</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>191</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1773,20 +1819,20 @@
         <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1794,17 +1840,17 @@
         <v>34</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1814,41 +1860,41 @@
       <c r="AA10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE10" t="s">
         <v>38</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>184</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>185</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>186</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1865,20 +1911,20 @@
         <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1886,17 +1932,17 @@
         <v>34</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1906,16 +1952,19 @@
       <c r="AA11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="s">
         <v>37</v>
       </c>
-      <c r="AC11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" t="s">
         <v>38</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2121,9 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EF3822-A6FF-40C4-B008-8A11DC484337}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2666,145 +2713,148 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" customWidth="1"/>
-    <col min="30" max="30" width="22.6640625" customWidth="1"/>
-    <col min="31" max="31" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" customWidth="1"/>
+    <col min="31" max="31" width="22.6640625" customWidth="1"/>
+    <col min="32" max="32" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:32" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>169</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>173</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2821,20 +2871,20 @@
         <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
         <v>168</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2842,17 +2892,17 @@
         <v>34</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2862,45 +2912,48 @@
       <c r="AA2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>138</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>139</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>140</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2911,137 +2964,141 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>172</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>159</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>149</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>179</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
@@ -3058,20 +3115,20 @@
         <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="R2" s="2" t="s">
         <v>34</v>
       </c>
@@ -3079,17 +3136,17 @@
         <v>34</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="X2" s="2" t="s">
         <v>34</v>
       </c>
@@ -3099,41 +3156,44 @@
       <c r="Z2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>173</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
@@ -3158,11 +3218,11 @@
       <c r="O3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
         <v>168</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>44</v>
@@ -3171,16 +3231,16 @@
         <v>44</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>45</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>44</v>
@@ -3191,41 +3251,44 @@
       <c r="Z3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>162</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>157</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>159</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>164</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
@@ -3242,20 +3305,20 @@
         <v>32</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="R4" s="2" t="s">
         <v>34</v>
       </c>
@@ -3263,17 +3326,17 @@
         <v>34</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="X4" s="2" t="s">
         <v>34</v>
       </c>
@@ -3283,41 +3346,44 @@
       <c r="Z4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD4" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>161</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>156</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>189</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
@@ -3334,20 +3400,20 @@
         <v>32</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="R5" s="2" t="s">
         <v>34</v>
       </c>
@@ -3355,17 +3421,17 @@
         <v>34</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="X5" s="2" t="s">
         <v>34</v>
       </c>
@@ -3375,41 +3441,44 @@
       <c r="Z5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>160</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>155</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>158</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3426,20 +3495,20 @@
         <v>32</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="R6" s="2" t="s">
         <v>34</v>
       </c>
@@ -3447,17 +3516,17 @@
         <v>34</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="X6" s="2" t="s">
         <v>34</v>
       </c>
@@ -3467,93 +3536,97 @@
       <c r="Z6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD6" t="s">
         <v>38</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AE6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>140</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>143</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>145</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>141</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>144</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>146</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
